--- a/Mock_Data/Working_Relationship.xlsx
+++ b/Mock_Data/Working_Relationship.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83216ade753ec4a/Desktop/Mock_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2894EF8CD512C56E3AFDB80C3A2C459EA887E504" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFABB9E9-D3B2-45D7-BA1B-AA8D1052EB3D}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_2894EF8CD512C56E3AFDB80C3A2C459EA887E504" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8967A9-CE6E-4E68-8FFD-D0A7B6EBE36C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="33645" windowHeight="18795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24045" yWindow="885" windowWidth="12975" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$1:$B$121</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -745,7 +748,7 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2087,6 +2090,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B121" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C121">
+      <sortCondition ref="B1:B121"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Mock_Data/Working_Relationship.xlsx
+++ b/Mock_Data/Working_Relationship.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83216ade753ec4a/Desktop/Mock_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2894EF8CD512C56E3AFDB80C3A2C459EA887E504" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8967A9-CE6E-4E68-8FFD-D0A7B6EBE36C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_2894EF8CD512C56E3AFDB80C3A2C459EA887E504" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBED0A8C-4DFB-4CD2-B2B4-C49B14646990}"/>
   <bookViews>
-    <workbookView xWindow="24045" yWindow="885" windowWidth="12975" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13230" yWindow="735" windowWidth="8085" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -747,13 +747,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
